--- a/Experiment Results on Feature Engineering.xlsx
+++ b/Experiment Results on Feature Engineering.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Indonesian-Emotions-Recognition-Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/rsutoyo_binus_edu/Documents/STUDY/03 DOCTORAL/WRITINGS/02 JOURNAL EMOTIONS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFB60B6-54A1-4C87-9EC5-88B13E613D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{FA92FC21-5DE6-4312-917D-770B0DBEBCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49C31FF7-0E5C-499D-AED2-66D6EC7EC6BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8DAB8A52-421E-4FB3-A028-916542AED856}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8DAB8A52-421E-4FB3-A028-916542AED856}"/>
   </bookViews>
   <sheets>
     <sheet name="proposed features" sheetId="1" r:id="rId1"/>
-    <sheet name="chart - tfidf" sheetId="3" r:id="rId2"/>
-    <sheet name="chart - word embedding" sheetId="4" r:id="rId3"/>
-    <sheet name="experiment result" sheetId="2" r:id="rId4"/>
-    <sheet name="experiment result (2)" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="experiment result" sheetId="2" r:id="rId3"/>
+    <sheet name="chart - tfidf" sheetId="3" r:id="rId4"/>
+    <sheet name="chart - word embedding" sheetId="4" r:id="rId5"/>
+    <sheet name="experiment result (2)" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="117">
   <si>
     <t>Word Embedding Model</t>
   </si>
@@ -426,6 +430,24 @@
   <si>
     <t>TF-IDF</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>TFIDF</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of f1</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +519,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -774,7 +803,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1018,31 +1047,37 @@
     <xf numFmtId="10" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,31 +1089,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="118">
+  <dxfs count="120">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8903,63 +8967,428 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rhio Sutoyo" refreshedDate="44641.673317476852" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="39" xr:uid="{445EB399-0BAA-4E75-B8FA-BEAF2DF89F9B}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="No" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="39"/>
+    </cacheField>
+    <cacheField name="Column1" numFmtId="0">
+      <sharedItems count="2">
+        <s v="TFIDF"/>
+        <s v="WE"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="acc" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.38590000000000002" maxValue="0.65269999999999995"/>
+    </cacheField>
+    <cacheField name="f1" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.36859999999999998" maxValue="0.66090000000000004"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="39">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="TFIDF_NB_non_stem_ori"/>
+    <n v="0.62770000000000004"/>
+    <n v="0.62470000000000003"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="TFIDF_NB_non_stem_aug"/>
+    <n v="0.61750000000000005"/>
+    <n v="0.60829999999999995"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="TFIDF_NB_stem_ori"/>
+    <n v="0.62090000000000001"/>
+    <n v="0.61729999999999996"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="0"/>
+    <s v="TFIDF_NB_stem_aug"/>
+    <n v="0.59589999999999999"/>
+    <n v="0.58850000000000002"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="0"/>
+    <s v="TFIDF_LR_non_stem_ori"/>
+    <n v="0.64129999999999998"/>
+    <n v="0.65290000000000004"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <s v="TFIDF_LR_non_stem_aug"/>
+    <n v="0.64129999999999998"/>
+    <n v="0.65280000000000005"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="0"/>
+    <s v="TFIDF_LR_stem_ori"/>
+    <n v="0.64129999999999998"/>
+    <n v="0.6512"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <s v="TFIDF_LR_stem_aug"/>
+    <n v="0.65269999999999995"/>
+    <n v="0.66090000000000004"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+    <s v="TFIDF_SVM_non_stem_ori"/>
+    <n v="0.63560000000000005"/>
+    <n v="0.64410000000000001"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <s v="TFIDF_SVM_non_stem_aug"/>
+    <n v="0.63790000000000002"/>
+    <n v="0.64610000000000001"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <s v="TFIDF_SVM_stem_ori"/>
+    <n v="0.65149999999999997"/>
+    <n v="0.65710000000000002"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <s v="TFIDF_SVM_stem_aug"/>
+    <n v="0.64590000000000003"/>
+    <n v="0.6502"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="1"/>
+    <s v="WE_NB_ft_saputri_mean"/>
+    <n v="0.49490000000000001"/>
+    <n v="0.48449999999999999"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="1"/>
+    <s v="WE_NB_ft_saputri_sum"/>
+    <n v="0.44040000000000001"/>
+    <n v="0.43009999999999998"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="WE_NB_ft_saputri_minmax"/>
+    <n v="0.48920000000000002"/>
+    <n v="0.47989999999999999"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="1"/>
+    <s v="WE_NB_w2v_saputri_mean"/>
+    <n v="0.4461"/>
+    <n v="0.4365"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="1"/>
+    <s v="WE_NB_w2v_saputri_sum"/>
+    <n v="0.38590000000000002"/>
+    <n v="0.36859999999999998"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="1"/>
+    <s v="WE_NB_w2v_saputri_minmax"/>
+    <n v="0.43359999999999999"/>
+    <n v="0.4289"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="1"/>
+    <s v="WE_NB_nnlm_mean"/>
+    <n v="0.4869"/>
+    <n v="0.48409999999999997"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+    <s v="WE_NB_nnlm_sum"/>
+    <n v="0.39269999999999999"/>
+    <n v="0.38979999999999998"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+    <s v="WE_NB_nnlm_minmax"/>
+    <n v="0.4642"/>
+    <n v="0.4642"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <s v="WE_LR_ft_saputri_mean"/>
+    <n v="0.62429999999999997"/>
+    <n v="0.62560000000000004"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <s v="WE_LR_ft_saputri_sum"/>
+    <n v="0.63790000000000002"/>
+    <n v="0.63970000000000005"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <s v="WE_LR_ft_saputri_minmax"/>
+    <n v="0.54259999999999997"/>
+    <n v="0.53720000000000001"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <s v="WE_LR_w2v_saputri_mean"/>
+    <n v="0.61750000000000005"/>
+    <n v="0.62070000000000003"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <s v="WE_LR_w2v_saputri_sum"/>
+    <n v="0.60609999999999997"/>
+    <n v="0.60650000000000004"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <s v="WE_LR_w2v_saputri_minmax"/>
+    <n v="0.496"/>
+    <n v="0.50380000000000003"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <s v="WE_LR_nnlm_mean"/>
+    <n v="0.55620000000000003"/>
+    <n v="0.54010000000000002"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <s v="WE_LR_nnlm_sum"/>
+    <n v="0.5948"/>
+    <n v="0.59240000000000004"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <s v="WE_LR_nnlm_minmax"/>
+    <n v="0.52890000000000004"/>
+    <n v="0.52149999999999996"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <s v="WE_SVM_ft_saputri_mean"/>
+    <n v="0.64249999999999996"/>
+    <n v="0.63770000000000004"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <s v="WE_SVM_ft_saputri_sum"/>
+    <n v="0.65269999999999995"/>
+    <n v="0.64500000000000002"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="1"/>
+    <s v="WE_SVM_ft_saputri_minmax"/>
+    <n v="0.53920000000000001"/>
+    <n v="0.53120000000000001"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="1"/>
+    <s v="WE_SVM_w2v_saputri_mean"/>
+    <n v="0.63109999999999999"/>
+    <n v="0.63270000000000004"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="1"/>
+    <s v="WE_SVM_w2v_saputri_sum"/>
+    <n v="0.5766"/>
+    <n v="0.58320000000000005"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="1"/>
+    <s v="WE_SVM_w2v_saputri_minmax"/>
+    <n v="0.49259999999999998"/>
+    <n v="0.49680000000000002"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="1"/>
+    <s v="WE_SVM_nnlm_mean"/>
+    <n v="0.59699999999999998"/>
+    <n v="0.58789999999999998"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="1"/>
+    <s v="WE_SVM_nnlm_sum"/>
+    <n v="0.59019999999999995"/>
+    <n v="0.58550000000000002"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="1"/>
+    <s v="WE_SVM_nnlm_minmax"/>
+    <n v="0.5131"/>
+    <n v="0.51"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7438EC7D-FCC5-4369-9885-6E8C522BAED4}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of f1" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{667A0645-18B0-4196-AF21-113A2AE8ADB5}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114" totalsRowBorderDxfId="113">
-  <autoFilter ref="A1:D40" xr:uid="{667A0645-18B0-4196-AF21-113A2AE8ADB5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
-    <sortCondition descending="1" ref="D1:D40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{667A0645-18B0-4196-AF21-113A2AE8ADB5}" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
+  <autoFilter ref="A1:E40" xr:uid="{667A0645-18B0-4196-AF21-113A2AE8ADB5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+    <sortCondition ref="A1:A40"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ECC2296B-AA28-48CE-B21C-8E2B0A61E07C}" name="No" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{E042AEA7-0BAB-4D46-AC08-0AE955829C8B}" name="Model" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{CFF6DDAB-7350-4B7A-BDE1-0C9CF0C4E968}" name="acc" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{646B5B5F-41C4-41BB-98A1-C2CDC28A934B}" name="f1" dataDxfId="109"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{ECC2296B-AA28-48CE-B21C-8E2B0A61E07C}" name="No" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{8D734460-BDC0-44B9-84B8-FB4BD9844F56}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E042AEA7-0BAB-4D46-AC08-0AE955829C8B}" name="Model" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{CFF6DDAB-7350-4B7A-BDE1-0C9CF0C4E968}" name="acc" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{646B5B5F-41C4-41BB-98A1-C2CDC28A934B}" name="f1" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9D37AC83-BF25-4163-9B24-F14ED3B41AD6}" name="Table311" displayName="Table311" ref="B44:D47" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9D37AC83-BF25-4163-9B24-F14ED3B41AD6}" name="Table311" displayName="Table311" ref="B44:D47" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <autoFilter ref="B44:D47" xr:uid="{DAFABE41-B7CC-40F1-805F-4BC8085BDD8B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B45:D47">
     <sortCondition descending="1" ref="D44:D47"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A31265E8-E305-45C2-B5A4-7F58BEF825F6}" name="Model" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{F06060CC-ACE8-41B0-8633-6906E7A40A37}" name="acc_mean" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{01E1E67C-8157-4E7F-A1D0-10160DFA093F}" name="f1_mean" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{A31265E8-E305-45C2-B5A4-7F58BEF825F6}" name="Model" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{F06060CC-ACE8-41B0-8633-6906E7A40A37}" name="acc_mean" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{01E1E67C-8157-4E7F-A1D0-10160DFA093F}" name="f1_mean" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B837AA5D-3719-42AF-B92D-B484382A73CB}" name="Table412" displayName="Table412" ref="B49:D51" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B837AA5D-3719-42AF-B92D-B484382A73CB}" name="Table412" displayName="Table412" ref="B49:D51" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="B49:D51" xr:uid="{EC654FFC-2EE4-440B-B52C-E147D6471533}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{94CD4EA9-8DD8-4F1F-9B69-07A2F8B8F165}" name="Model" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{70D50EE5-D137-454D-BBF5-08AEF132D343}" name="acc_mean" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{59D7E599-0141-4FF8-AC0F-BD83B7A864E3}" name="acc_f1" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{94CD4EA9-8DD8-4F1F-9B69-07A2F8B8F165}" name="Model" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{70D50EE5-D137-454D-BBF5-08AEF132D343}" name="acc_mean" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{59D7E599-0141-4FF8-AC0F-BD83B7A864E3}" name="acc_f1" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5105561F-D6FE-4C6A-8B22-975D897E80FC}" name="Table4613" displayName="Table4613" ref="B54:D56" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5105561F-D6FE-4C6A-8B22-975D897E80FC}" name="Table4613" displayName="Table4613" ref="B54:D56" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="B54:D56" xr:uid="{39CF3D81-CEE8-4970-A1A2-D2CDB1ECAEA0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A2BA3E5A-F0F6-4ECB-8FEF-10AA3EA20993}" name="Model" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{F6E62E40-DE14-48D3-AA66-A62D9AD52F48}" name="acc_mean" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{FC62C9A3-E72A-4E52-8557-67D1F9F48339}" name="acc_f1" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{A2BA3E5A-F0F6-4ECB-8FEF-10AA3EA20993}" name="Model" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{F6E62E40-DE14-48D3-AA66-A62D9AD52F48}" name="acc_mean" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{FC62C9A3-E72A-4E52-8557-67D1F9F48339}" name="acc_f1" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CE9D4BDF-4046-4D86-860E-4691D0286945}" name="Table614" displayName="Table614" ref="B61:D64" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CE9D4BDF-4046-4D86-860E-4691D0286945}" name="Table614" displayName="Table614" ref="B61:D64" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="B61:D64" xr:uid="{AF98CD80-6250-42F2-813B-7E43523B86FF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B62:D64">
     <sortCondition descending="1" ref="D61:D64"/>
@@ -8974,94 +9403,94 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2D9FE047-D00C-4DB0-97F0-7410B19F132E}" name="Table715" displayName="Table715" ref="B66:D69" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2D9FE047-D00C-4DB0-97F0-7410B19F132E}" name="Table715" displayName="Table715" ref="B66:D69" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="B66:D69" xr:uid="{DFE0CE11-0952-4F41-B456-482AA8C41734}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B67:D69">
     <sortCondition descending="1" ref="D66:D69"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{22719487-0C9C-4915-9906-BAECF212AD6C}" name="Model" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{6BCF997D-24A4-457A-9E65-85C5DF85AFFB}" name="acc_mean" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{58DCA391-E2F1-4CFA-A2B5-0630118CB990}" name="f1_mean" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{22719487-0C9C-4915-9906-BAECF212AD6C}" name="Model" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{6BCF997D-24A4-457A-9E65-85C5DF85AFFB}" name="acc_mean" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{58DCA391-E2F1-4CFA-A2B5-0630118CB990}" name="f1_mean" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B9C26212-9276-489E-B1C5-5838A18562C8}" name="Table816" displayName="Table816" ref="B71:D74" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B9C26212-9276-489E-B1C5-5838A18562C8}" name="Table816" displayName="Table816" ref="B71:D74" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="B71:D74" xr:uid="{31302799-7081-4009-BC28-B624F0214571}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B72:D74">
     <sortCondition descending="1" ref="D71:D74"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D75A51BA-1EF9-4EE9-9D83-712EBD20BA4D}" name="Model" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{1062C2E2-B379-4610-87EF-81A96D059362}" name="acc_mean" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{112517B6-05ED-4B58-BA08-C78EAA387851}" name="f1_mean" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D75A51BA-1EF9-4EE9-9D83-712EBD20BA4D}" name="Model" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1062C2E2-B379-4610-87EF-81A96D059362}" name="acc_mean" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{112517B6-05ED-4B58-BA08-C78EAA387851}" name="f1_mean" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{81DEBB3D-A334-4BBC-AFB3-49D4263D8651}" name="Table8317" displayName="Table8317" ref="B78:D80" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{81DEBB3D-A334-4BBC-AFB3-49D4263D8651}" name="Table8317" displayName="Table8317" ref="B78:D80" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="B78:D80" xr:uid="{D1E68E25-EB3E-4A34-8B0F-C810AA37801D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B79:D80">
     <sortCondition descending="1" ref="D71:D74"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5A6D53FD-072C-45B1-942E-22BD3B029244}" name="Model" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{FA47F243-BE6E-4C61-93EA-1156E7AFE27A}" name="acc_mean" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{EB984157-675C-4B59-AD06-7E4BD6C7CB17}" name="f1_mean" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5A6D53FD-072C-45B1-942E-22BD3B029244}" name="Model" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FA47F243-BE6E-4C61-93EA-1156E7AFE27A}" name="acc_mean" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EB984157-675C-4B59-AD06-7E4BD6C7CB17}" name="f1_mean" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DAFABE41-B7CC-40F1-805F-4BC8085BDD8B}" name="Table3" displayName="Table3" ref="B44:D47" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="104">
-  <autoFilter ref="B44:D47" xr:uid="{DAFABE41-B7CC-40F1-805F-4BC8085BDD8B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B45:D47">
-    <sortCondition descending="1" ref="D44:D47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DAFABE41-B7CC-40F1-805F-4BC8085BDD8B}" name="Table3" displayName="Table3" ref="G3:I6" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+  <autoFilter ref="G3:I6" xr:uid="{DAFABE41-B7CC-40F1-805F-4BC8085BDD8B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G4:I6">
+    <sortCondition descending="1" ref="I3:I6"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{35D61837-8B75-4C5D-BA00-D962FF9DCD04}" name="Model" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{837FFBD0-AF00-4261-BE7E-09572379C39A}" name="acc_mean" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{56FE4BAC-DE0E-4865-8832-6D9B32E37443}" name="f1_mean" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{35D61837-8B75-4C5D-BA00-D962FF9DCD04}" name="Model" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{837FFBD0-AF00-4261-BE7E-09572379C39A}" name="acc_mean" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{56FE4BAC-DE0E-4865-8832-6D9B32E37443}" name="f1_mean" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EC654FFC-2EE4-440B-B52C-E147D6471533}" name="Table4" displayName="Table4" ref="B49:D51" totalsRowShown="0" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98" totalsRowBorderDxfId="97">
-  <autoFilter ref="B49:D51" xr:uid="{EC654FFC-2EE4-440B-B52C-E147D6471533}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EC654FFC-2EE4-440B-B52C-E147D6471533}" name="Table4" displayName="Table4" ref="G8:I10" totalsRowShown="0" headerRowDxfId="102" headerRowBorderDxfId="101" tableBorderDxfId="100" totalsRowBorderDxfId="99">
+  <autoFilter ref="G8:I10" xr:uid="{EC654FFC-2EE4-440B-B52C-E147D6471533}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6A9A208C-C8A8-4285-AAAE-90E56ABCFF40}" name="Model" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{97153AE5-DD09-4788-B803-3C1E526DF93C}" name="acc_mean" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{C472BA6E-7617-47F3-89C3-89027CF8C38C}" name="acc_f1" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{6A9A208C-C8A8-4285-AAAE-90E56ABCFF40}" name="Model" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{97153AE5-DD09-4788-B803-3C1E526DF93C}" name="acc_mean" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{C472BA6E-7617-47F3-89C3-89027CF8C38C}" name="acc_f1" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{39CF3D81-CEE8-4970-A1A2-D2CDB1ECAEA0}" name="Table46" displayName="Table46" ref="B54:D56" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91" totalsRowBorderDxfId="90">
-  <autoFilter ref="B54:D56" xr:uid="{39CF3D81-CEE8-4970-A1A2-D2CDB1ECAEA0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{39CF3D81-CEE8-4970-A1A2-D2CDB1ECAEA0}" name="Table46" displayName="Table46" ref="G13:I15" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93" totalsRowBorderDxfId="92">
+  <autoFilter ref="G13:I15" xr:uid="{39CF3D81-CEE8-4970-A1A2-D2CDB1ECAEA0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7CE23746-BC49-4583-A61E-944EEA848F3F}" name="Model" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{474D2BA5-26C9-4E90-BC2E-0BFA7E30D46D}" name="acc_mean" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{A3041091-A2E1-4EEE-AD08-18DCFCB38C3E}" name="acc_f1" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{7CE23746-BC49-4583-A61E-944EEA848F3F}" name="Model" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{474D2BA5-26C9-4E90-BC2E-0BFA7E30D46D}" name="acc_mean" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{A3041091-A2E1-4EEE-AD08-18DCFCB38C3E}" name="acc_f1" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AF98CD80-6250-42F2-813B-7E43523B86FF}" name="Table6" displayName="Table6" ref="B61:D64" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84" totalsRowBorderDxfId="83">
-  <autoFilter ref="B61:D64" xr:uid="{AF98CD80-6250-42F2-813B-7E43523B86FF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B62:D64">
-    <sortCondition descending="1" ref="D61:D64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AF98CD80-6250-42F2-813B-7E43523B86FF}" name="Table6" displayName="Table6" ref="G20:I23" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86" totalsRowBorderDxfId="85">
+  <autoFilter ref="G20:I23" xr:uid="{AF98CD80-6250-42F2-813B-7E43523B86FF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G21:I23">
+    <sortCondition descending="1" ref="I20:I23"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{241DA7FB-4B88-4914-A484-DE80E6A8BD9E}" name="Model"/>
@@ -9073,61 +9502,61 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFE0CE11-0952-4F41-B456-482AA8C41734}" name="Table7" displayName="Table7" ref="B66:D69" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79" totalsRowBorderDxfId="78">
-  <autoFilter ref="B66:D69" xr:uid="{DFE0CE11-0952-4F41-B456-482AA8C41734}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B67:D69">
-    <sortCondition descending="1" ref="D66:D69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFE0CE11-0952-4F41-B456-482AA8C41734}" name="Table7" displayName="Table7" ref="G25:I28" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81" totalsRowBorderDxfId="80">
+  <autoFilter ref="G25:I28" xr:uid="{DFE0CE11-0952-4F41-B456-482AA8C41734}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G26:I28">
+    <sortCondition descending="1" ref="I25:I28"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{20E6F1C5-92B5-46BE-9310-DD9E1EF641EA}" name="Model" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{6536CE5A-D6DF-4101-8661-8C9D6E49A81B}" name="acc_mean" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{35663367-A34F-4C8C-B88A-3C1D72B72A10}" name="f1_mean" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{20E6F1C5-92B5-46BE-9310-DD9E1EF641EA}" name="Model" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{6536CE5A-D6DF-4101-8661-8C9D6E49A81B}" name="acc_mean" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{35663367-A34F-4C8C-B88A-3C1D72B72A10}" name="f1_mean" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{31302799-7081-4009-BC28-B624F0214571}" name="Table8" displayName="Table8" ref="B71:D74" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71" totalsRowBorderDxfId="70">
-  <autoFilter ref="B71:D74" xr:uid="{31302799-7081-4009-BC28-B624F0214571}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B72:D74">
-    <sortCondition descending="1" ref="D71:D74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{31302799-7081-4009-BC28-B624F0214571}" name="Table8" displayName="Table8" ref="G30:I33" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
+  <autoFilter ref="G30:I33" xr:uid="{31302799-7081-4009-BC28-B624F0214571}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G31:I33">
+    <sortCondition descending="1" ref="I30:I33"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{19596775-3B69-44C1-846E-26FB1B37D3D8}" name="Model" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{16F8BFAF-ACEE-4CC7-A630-66CEA67D8DCC}" name="acc_mean" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{CAF7D841-090B-44F0-8ADB-270B78E44537}" name="f1_mean" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{19596775-3B69-44C1-846E-26FB1B37D3D8}" name="Model" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{16F8BFAF-ACEE-4CC7-A630-66CEA67D8DCC}" name="acc_mean" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{CAF7D841-090B-44F0-8ADB-270B78E44537}" name="f1_mean" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D1E68E25-EB3E-4A34-8B0F-C810AA37801D}" name="Table83" displayName="Table83" ref="B78:D80" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
-  <autoFilter ref="B78:D80" xr:uid="{D1E68E25-EB3E-4A34-8B0F-C810AA37801D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B79:D80">
-    <sortCondition descending="1" ref="D71:D74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D1E68E25-EB3E-4A34-8B0F-C810AA37801D}" name="Table83" displayName="Table83" ref="G37:I39" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+  <autoFilter ref="G37:I39" xr:uid="{D1E68E25-EB3E-4A34-8B0F-C810AA37801D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G38:I39">
+    <sortCondition descending="1" ref="I30:I33"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3212EE22-62A1-4490-98B2-E446126D6828}" name="Model" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{4D09D5FF-9759-437A-823E-0320335351EA}" name="acc_mean" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{5549F8A5-9B8D-47B5-91FD-AC22109166EF}" name="f1_mean" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{3212EE22-62A1-4490-98B2-E446126D6828}" name="Model" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{4D09D5FF-9759-437A-823E-0320335351EA}" name="acc_mean" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{5549F8A5-9B8D-47B5-91FD-AC22109166EF}" name="f1_mean" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7742E3FF-C69A-487B-9572-C6579598A623}" name="Table110" displayName="Table110" ref="A1:D40" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7742E3FF-C69A-487B-9572-C6579598A623}" name="Table110" displayName="Table110" ref="A1:D40" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="A1:D40" xr:uid="{667A0645-18B0-4196-AF21-113A2AE8ADB5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
     <sortCondition descending="1" ref="D1:D40"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4BBAFDED-C64A-4414-911B-795B811815DF}" name="No" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{D5A435C0-5FDD-46C0-AD5E-5BDD78473653}" name="Model" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{6937C471-E773-4785-9651-4343FE3F0181}" name="acc" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{0E223A26-954B-4495-BE12-746EC4128994}" name="f1" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{4BBAFDED-C64A-4414-911B-795B811815DF}" name="No" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{D5A435C0-5FDD-46C0-AD5E-5BDD78473653}" name="Model" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{6937C471-E773-4785-9651-4343FE3F0181}" name="acc" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{0E223A26-954B-4495-BE12-746EC4128994}" name="f1" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9464,37 +9893,37 @@
     </row>
     <row r="3" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
-      <c r="H4" s="102" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="H4" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="3"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="105" t="s">
+      <c r="I5" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
       <c r="L5" s="3"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -9820,16 +10249,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9837,6 +10266,1029 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23908D-AD85-4141-96BF-921FCFCE67F9}">
+  <dimension ref="A3:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="109">
+        <v>0.63784166666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="109">
+        <v>0.53200370370370376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="109">
+        <v>0.56456923076923082</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373FDCEE-D137-45EF-8F2A-023E3F89E7DA}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="13"/>
+    <col min="7" max="7" width="30.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.62470000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0.64415</v>
+      </c>
+      <c r="I4" s="39">
+        <v>0.65444999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0.64272499999999999</v>
+      </c>
+      <c r="I5" s="39">
+        <v>0.64937500000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="I6" s="42">
+        <v>0.60970000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.65280000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.6512</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0.63355000000000006</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0.63815000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0.63753333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.64610000000000001</v>
+      </c>
+      <c r="H11" s="30">
+        <f>H10-H9</f>
+        <v>1.1499999999999844E-3</v>
+      </c>
+      <c r="I11" s="30">
+        <f>I10-I9</f>
+        <v>-6.166666666668208E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.65710000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.6502</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.49490000000000001</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0.63638333333333341</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0.64121666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.43009999999999998</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0.63186666666666669</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.63446666666666673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.47989999999999999</v>
+      </c>
+      <c r="H16" s="30">
+        <f>H15-H14</f>
+        <v>-4.5166666666667243E-3</v>
+      </c>
+      <c r="I16" s="30">
+        <f>I15-I14</f>
+        <v>-6.7499999999999227E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.4461</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.4365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.4289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.4869</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.48409999999999997</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0.58166666666666667</v>
+      </c>
+      <c r="I21" s="65">
+        <v>0.5788888888888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.4642</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.4642</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0.57825555555555563</v>
+      </c>
+      <c r="I22" s="66">
+        <v>0.57638888888888884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="71">
+        <v>0.44821111111111112</v>
+      </c>
+      <c r="I23" s="72">
+        <v>0.44073333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.63970000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0.53720000000000001</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="38">
+        <v>0.56263333333333343</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0.55676666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="38">
+        <v>0.52801999999999993</v>
+      </c>
+      <c r="I27" s="39">
+        <v>0.52155999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="26">
+        <v>0.496</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="41">
+        <v>0.52061111111111114</v>
+      </c>
+      <c r="I28" s="42">
+        <v>0.51974444444444445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0.55620000000000003</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0.54010000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.5948</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.52890000000000004</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="38">
+        <v>0.57276000000000005</v>
+      </c>
+      <c r="I31" s="39">
+        <v>0.56825000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>31</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.63770000000000004</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="38">
+        <v>0.54721000000000009</v>
+      </c>
+      <c r="I32" s="39">
+        <v>0.54331999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="41">
+        <v>0.4999333333333334</v>
+      </c>
+      <c r="I33" s="42">
+        <v>0.49705555555555558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>33</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>34</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.5766</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.58320000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="G38" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="38">
+        <v>0.63412500000000016</v>
+      </c>
+      <c r="I38" s="38">
+        <v>0.63784166666666664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="G39" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="38">
+        <v>0.53604444444444421</v>
+      </c>
+      <c r="I39" s="38">
+        <v>0.53200370370370376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0.5131</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="8">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D4B2C8-B843-4748-A72A-CC7A4FCB953A}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -10132,12 +11584,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7C5FB8-4DC8-4218-A245-EA7EAD4F8D65}">
   <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11081,21 +12533,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373FDCEE-D137-45EF-8F2A-023E3F89E7DA}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB43706-4CF1-48E0-B190-F1A7E1516686}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="13"/>
@@ -11119,918 +12568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="107">
-        <v>8</v>
-      </c>
-      <c r="B2" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="109">
-        <v>0.65269999999999995</v>
-      </c>
-      <c r="D2" s="110">
-        <v>0.66090000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>11</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0.65149999999999997</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0.65710000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>5</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.65290000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>6</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0.65280000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>7</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0.6512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>12</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.64590000000000003</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0.6502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>10</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.63790000000000002</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0.64610000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0.65269999999999995</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0.64500000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0.63560000000000005</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0.64410000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>23</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="24">
-        <v>0.63790000000000002</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0.63970000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>31</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.64249999999999996</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0.63770000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>34</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.63270000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>22</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.62429999999999997</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.62560000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>1</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0.62770000000000004</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0.62470000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>25</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="24">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="D16" s="24">
-        <v>0.62070000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>3</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="19">
-        <v>0.62090000000000001</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.61729999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>2</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="19">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0.60829999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>26</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="24">
-        <v>0.60609999999999997</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.60650000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>29</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0.5948</v>
-      </c>
-      <c r="D20" s="25">
-        <v>0.59240000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>4</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="19">
-        <v>0.59589999999999999</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0.58850000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>37</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="19">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0.58789999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>38</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="19">
-        <v>0.59019999999999995</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0.58550000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>35</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="19">
-        <v>0.5766</v>
-      </c>
-      <c r="D24" s="20">
-        <v>0.58320000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>28</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0.55620000000000003</v>
-      </c>
-      <c r="D25" s="25">
-        <v>0.54010000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>24</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0.54259999999999997</v>
-      </c>
-      <c r="D26" s="25">
-        <v>0.53720000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>33</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="19">
-        <v>0.53920000000000001</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0.53120000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>30</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0.52890000000000004</v>
-      </c>
-      <c r="D28" s="27">
-        <v>0.52149999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>39</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0.5131</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>27</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="24">
-        <v>0.496</v>
-      </c>
-      <c r="D30" s="25">
-        <v>0.50380000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <v>36</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="19">
-        <v>0.49259999999999998</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0.49680000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>13</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="19">
-        <v>0.49490000000000001</v>
-      </c>
-      <c r="D32" s="20">
-        <v>0.48449999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>19</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="19">
-        <v>0.4869</v>
-      </c>
-      <c r="D33" s="20">
-        <v>0.48409999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>15</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="19">
-        <v>0.48920000000000002</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0.47989999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>21</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="19">
-        <v>0.4642</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0.4642</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>16</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="19">
-        <v>0.4461</v>
-      </c>
-      <c r="D36" s="20">
-        <v>0.4365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <v>14</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="19">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="D37" s="20">
-        <v>0.43009999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>18</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="19">
-        <v>0.43359999999999999</v>
-      </c>
-      <c r="D38" s="20">
-        <v>0.4289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
-        <v>20</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="19">
-        <v>0.39269999999999999</v>
-      </c>
-      <c r="D39" s="20">
-        <v>0.38979999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <v>17</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="22">
-        <v>0.38590000000000002</v>
-      </c>
-      <c r="D40" s="23">
-        <v>0.36859999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="38">
-        <v>0.64415</v>
-      </c>
-      <c r="D45" s="39">
-        <v>0.65444999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="38">
-        <v>0.64272499999999999</v>
-      </c>
-      <c r="D46" s="39">
-        <v>0.64937500000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="41">
-        <v>0.61550000000000005</v>
-      </c>
-      <c r="D47" s="42">
-        <v>0.60970000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="31">
-        <v>0.63355000000000006</v>
-      </c>
-      <c r="D50" s="34">
-        <v>0.63815000000000011</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="35">
-        <v>0.63470000000000004</v>
-      </c>
-      <c r="D51" s="36">
-        <v>0.63753333333333329</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="30">
-        <f>C51-C50</f>
-        <v>1.1499999999999844E-3</v>
-      </c>
-      <c r="D52" s="30">
-        <f>D51-D50</f>
-        <v>-6.166666666668208E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="31">
-        <v>0.63638333333333341</v>
-      </c>
-      <c r="D55" s="31">
-        <v>0.64121666666666666</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="35">
-        <v>0.63186666666666669</v>
-      </c>
-      <c r="D56" s="35">
-        <v>0.63446666666666673</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
-        <f>C56-C55</f>
-        <v>-4.5166666666667243E-3</v>
-      </c>
-      <c r="D57" s="30">
-        <f>D56-D55</f>
-        <v>-6.7499999999999227E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="28">
-        <v>0.58166666666666667</v>
-      </c>
-      <c r="D62" s="65">
-        <v>0.5788888888888889</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="29">
-        <v>0.57825555555555563</v>
-      </c>
-      <c r="D63" s="66">
-        <v>0.57638888888888884</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="71">
-        <v>0.44821111111111112</v>
-      </c>
-      <c r="D64" s="72">
-        <v>0.44073333333333331</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="38">
-        <v>0.56263333333333343</v>
-      </c>
-      <c r="D67" s="39">
-        <v>0.55676666666666663</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="38">
-        <v>0.52801999999999993</v>
-      </c>
-      <c r="D68" s="39">
-        <v>0.52155999999999991</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="41">
-        <v>0.52061111111111114</v>
-      </c>
-      <c r="D69" s="42">
-        <v>0.51974444444444445</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="38">
-        <v>0.57276000000000005</v>
-      </c>
-      <c r="D72" s="39">
-        <v>0.56825000000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="38">
-        <v>0.54721000000000009</v>
-      </c>
-      <c r="D73" s="39">
-        <v>0.54331999999999991</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="41">
-        <v>0.4999333333333334</v>
-      </c>
-      <c r="D74" s="42">
-        <v>0.49705555555555558</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" s="75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="38">
-        <v>0.63412500000000016</v>
-      </c>
-      <c r="D79" s="38">
-        <v>0.63784166666666664</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="38">
-        <v>0.53604444444444421</v>
-      </c>
-      <c r="D80" s="38">
-        <v>0.53200370370370376</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="8">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB43706-4CF1-48E0-B190-F1A7E1516686}">
-  <dimension ref="A1:D80"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="13"/>
-    <col min="6" max="6" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="97">
         <v>1</v>
       </c>
@@ -12128,7 +12666,7 @@
         <v>0.64610000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="93">
         <v>8</v>
       </c>
@@ -12184,17 +12722,17 @@
         <v>0.63770000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="82">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="93">
         <v>12</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="95">
         <v>0.63109999999999999</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="95">
         <v>0.63270000000000004</v>
       </c>
     </row>
